--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -7364,7 +7364,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14162,16 +14162,16 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/02/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>10/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14210,16 +14210,16 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14258,16 +14258,16 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/03/2022</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/04/2022</t>
+          <t>19/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14306,16 +14306,16 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANÍSMO</t>
+          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
         </is>
       </c>
       <c r="F44" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -22279,7 +22279,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Gasoducto Taltal S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F457" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F312" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,16 +16466,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,16 +16466,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,16 +16466,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,16 +16466,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16466,16 +16466,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saneamiento ambiental de suelos contaminados, Sector EXFFCC Taltal</t>
+          <t>Parque Eólico Pampa Fidelia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20000</v>
+        <v>645000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157370529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157238670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Pampa Fidelia</t>
+          <t>Saneamiento ambiental de suelos contaminados, Sector EXFFCC Taltal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>645000</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157238670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157370529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Pampa Fidelia</t>
+          <t>Saneamiento ambiental de suelos contaminados, Sector EXFFCC Taltal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>645000</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157238670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157370529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saneamiento ambiental de suelos contaminados, Sector EXFFCC Taltal</t>
+          <t>Parque Eólico Pampa Fidelia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>645000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157370529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157238670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saneamiento ambiental de suelos contaminados, Sector EXFFCC Taltal</t>
+          <t>Parque Eólico Pampa Fidelia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20000</v>
+        <v>645000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/11/2022</t>
+          <t>22/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157370529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157238670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Pampa Fidelia</t>
+          <t>Saneamiento ambiental de suelos contaminados, Sector EXFFCC Taltal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>645000</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157238670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157370529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F256" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F459" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Librillo Solar SpA</t>
+          <t>Sonnedix Librillo Solar SpA</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Conejo Solar SpA</t>
+          <t>Sonnedix ConejoSolar SpA</t>
         </is>
       </c>
       <c r="F116" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F456" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/02/2023</t>
+          <t>27/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/03/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1892,7 +1892,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Pampa Solar Norte Cuatro SpA</t>
+          <t>Arcadia Generación Solar S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Helio Atacama Nueve Spa</t>
+          <t>Arcadia Generación Solar S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Eolico Wayra SpA</t>
+          <t>HYTEC SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F66" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/07/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cultivo comercial de dorado (seriola lalandi), en el sector Punta Lavata 2, al suroeste de Punta Lavata, comuna de Tal Tal, provincia de Antofagasta - región de Antofagasta. pert n° 212024007</t>
+          <t>Cultivo comercial de dorado (seriola lalandi), en el sector Punta San Sedro, al suroeste de Punta San Pedro, comuna de Tal Tal, provincia de Antofagasta - región de Antofagasta. pert n° 212024002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159831099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159830364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cultivo comercial de dorado (seriola lalandi), en el sector Punta San Sedro, al suroeste de Punta San Pedro, comuna de Tal Tal, provincia de Antofagasta - región de Antofagasta. pert n° 212024002</t>
+          <t>Cultivo comercial de dorado (seriola lalandi), en el sector Punta Lavata 2, al suroeste de Punta Lavata, comuna de Tal Tal, provincia de Antofagasta - región de Antofagasta. pert n° 212024007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159830364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159831099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Parque Eólico Antofagasta SPA</t>
+          <t>Parque Eólico Antofagasta SpA</t>
         </is>
       </c>
       <c r="F26" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/08/2023</t>
+          <t>05/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>250000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Pampa Solar Sur Cinco SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Optimización del Ciclo Combinado de la Central Termoeléctrica Taltal</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250000</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto "Línea de Alta Tensión 1x220 kV, S/E Elevadora Pampa Solar Sur - S/E Seccionadora Pampa Solar Sur"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pampa Solar Sur Cinco SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>16650</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -22807,7 +22807,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F468" t="n">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Taltal.xlsx
+++ b/data/Taltal.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN III PLANTA DE ÓXIDOS TALTAL</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>219</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128963842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Campamento Minera Las Cenizas - Taltal</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Campamento Minera Las Cenizas - Taltal</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Guanaco Compañia Minera SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PROYECTO DE PROSPECCION AMANCAYA (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Guanaco Compañia Minera SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3148212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>500</v>
+        <v>3597</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ampliación Planta SX-EW 200 a 300 tmf/mes Planta Taltal (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>3597</v>
+        <v>500</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2953588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Franke</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ACIDO SULFURICO - II REGION (e-seia)</t>
+          <t>Modificación Tubería de Agua Proyecto Franke (e-seia)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>Sociedad Contractual Minera Franke</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
